--- a/usecases/UseCases_GENIVI.xlsx
+++ b/usecases/UseCases_GENIVI.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Google Drive/Studium/Bachelor/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/Google Drive/Studium/Bachelor/repos/viwiLocationBasedServices/usecases/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MapViewer" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="119" zoomScaleNormal="164" zoomScalePageLayoutView="164" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="164" zoomScalePageLayoutView="164" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
